--- a/data/Economic_Impact/GDP/Climate Risk Assesment/GLOBALCLIMATE RISKINDEX 2020_data concerning 1999-2018.xlsx
+++ b/data/Economic_Impact/GDP/Climate Risk Assesment/GLOBALCLIMATE RISKINDEX 2020_data concerning 1999-2018.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Konstantin\Desktop\Dashboard_Vers1\data\Economic_Impact\GDP\Climate Risk Assesment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FE75D5-1F7C-426C-8F00-13A6F13636D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AA8BF2-AAEE-4F63-BCEF-DA3FDF22AE76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{4681FB31-FB2A-47F7-824A-C88F762BF8AD}"/>
   </bookViews>
@@ -66,10 +66,6 @@
     <t>Country</t>
   </si>
   <si>
-    <t>CRI
-score</t>
-  </si>
-  <si>
     <t>77</t>
   </si>
   <si>
@@ -1667,6 +1663,9 @@
   </si>
   <si>
     <t>Fatalities 1999-2018 (Rank)</t>
+  </si>
+  <si>
+    <t>CRI score</t>
   </si>
 </sst>
 </file>
@@ -2233,7 +2232,7 @@
   <dimension ref="A1:I182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2256,4201 +2255,4201 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>535</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="G16" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="G18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>317</v>
-      </c>
       <c r="D20" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>319</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>321</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="D23" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>325</v>
-      </c>
       <c r="D24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>328</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>330</v>
-      </c>
       <c r="F26" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>332</v>
-      </c>
       <c r="D27" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="G28" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="D29" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>340</v>
-      </c>
       <c r="D30" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>342</v>
-      </c>
       <c r="D31" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="D32" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>346</v>
-      </c>
       <c r="D33" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>349</v>
-      </c>
       <c r="F34" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>351</v>
-      </c>
       <c r="D35" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="G37" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="D39" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>360</v>
-      </c>
       <c r="D40" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>362</v>
-      </c>
       <c r="D41" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>364</v>
-      </c>
       <c r="D42" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>366</v>
-      </c>
       <c r="D43" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>368</v>
-      </c>
       <c r="D44" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>370</v>
-      </c>
       <c r="D45" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>372</v>
-      </c>
       <c r="D46" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="G46" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>374</v>
-      </c>
       <c r="D47" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="D48" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>378</v>
-      </c>
       <c r="D49" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>381</v>
-      </c>
       <c r="F50" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>383</v>
-      </c>
       <c r="D51" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="F52" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>388</v>
-      </c>
       <c r="D53" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>390</v>
-      </c>
       <c r="D54" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>392</v>
-      </c>
       <c r="D55" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>394</v>
-      </c>
       <c r="D56" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>396</v>
-      </c>
       <c r="D57" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>398</v>
-      </c>
       <c r="D58" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>400</v>
-      </c>
       <c r="D59" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>402</v>
-      </c>
       <c r="D60" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>404</v>
-      </c>
       <c r="D61" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>406</v>
-      </c>
       <c r="D62" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="D63" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>410</v>
-      </c>
       <c r="D64" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>412</v>
-      </c>
       <c r="D65" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>414</v>
-      </c>
       <c r="D66" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>416</v>
-      </c>
       <c r="D67" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>418</v>
-      </c>
       <c r="D68" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>420</v>
-      </c>
       <c r="D69" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>422</v>
-      </c>
       <c r="D70" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>424</v>
-      </c>
       <c r="D71" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>428</v>
-      </c>
       <c r="D74" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="D75" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G75" s="1" t="s">
         <v>430</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>433</v>
-      </c>
       <c r="D76" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>435</v>
-      </c>
       <c r="D77" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>437</v>
-      </c>
       <c r="D78" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>439</v>
-      </c>
       <c r="D79" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>441</v>
-      </c>
       <c r="D80" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>443</v>
-      </c>
       <c r="D81" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>446</v>
-      </c>
       <c r="D83" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>448</v>
-      </c>
       <c r="D84" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>450</v>
-      </c>
       <c r="D85" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>452</v>
-      </c>
       <c r="D86" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>454</v>
-      </c>
       <c r="D87" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>456</v>
-      </c>
       <c r="D88" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>458</v>
-      </c>
       <c r="D89" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>460</v>
-      </c>
       <c r="D90" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>462</v>
-      </c>
       <c r="D91" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>464</v>
-      </c>
       <c r="D92" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>466</v>
-      </c>
       <c r="D93" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B94" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>468</v>
-      </c>
       <c r="D94" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>470</v>
-      </c>
       <c r="D95" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>472</v>
-      </c>
       <c r="D96" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>474</v>
-      </c>
       <c r="D97" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>476</v>
-      </c>
       <c r="D98" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B99" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>478</v>
-      </c>
       <c r="D99" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>480</v>
-      </c>
       <c r="D100" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>483</v>
-      </c>
       <c r="D102" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>485</v>
-      </c>
       <c r="D103" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>487</v>
-      </c>
       <c r="D104" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B105" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>489</v>
-      </c>
       <c r="D105" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>491</v>
-      </c>
       <c r="D106" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>493</v>
-      </c>
       <c r="D107" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>495</v>
-      </c>
       <c r="D108" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>497</v>
-      </c>
       <c r="D109" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B110" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>499</v>
-      </c>
       <c r="D110" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>501</v>
-      </c>
       <c r="D111" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B112" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>503</v>
-      </c>
       <c r="D112" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>505</v>
-      </c>
       <c r="D113" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B114" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>507</v>
-      </c>
       <c r="D114" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B115" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>509</v>
-      </c>
       <c r="D115" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B116" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>511</v>
-      </c>
       <c r="D116" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>513</v>
-      </c>
       <c r="D117" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>516</v>
-      </c>
       <c r="D119" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>518</v>
-      </c>
       <c r="D120" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B122" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="C122" s="1" t="s">
-        <v>521</v>
-      </c>
       <c r="D122" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B123" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>523</v>
-      </c>
       <c r="D123" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B124" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="C124" s="1" t="s">
-        <v>525</v>
-      </c>
       <c r="D124" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B126" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>528</v>
-      </c>
       <c r="D126" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B127" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="C127" s="1" t="s">
-        <v>530</v>
-      </c>
       <c r="D127" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="C129" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C129" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="D129" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B130" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="D130" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F130" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D130" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F130" s="1" t="s">
+      <c r="G130" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="C131" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="D131" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D131" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="E131" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B132" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="D132" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F132" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D132" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="G132" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="C133" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C133" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="D133" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="C134" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="D134" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E134" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D134" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E134" s="1" t="s">
+      <c r="F134" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F134" s="1" t="s">
+      <c r="G134" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="C135" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="D135" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="E135" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G135" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B136" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="D136" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="E136" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F136" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E136" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="G136" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B137" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="D137" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D137" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="E137" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B138" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="D138" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E138" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D138" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E138" s="1" t="s">
+      <c r="F138" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G138" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E139" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C139" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E139" s="1" t="s">
+      <c r="F139" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F139" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="G139" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="C140" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="D140" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E140" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D140" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="F140" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="C141" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="D141" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E141" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D141" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="F141" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B142" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="D142" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="E142" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E142" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="F142" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="C143" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C143" s="1" t="s">
-        <v>232</v>
-      </c>
       <c r="D143" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B144" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="D144" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G144" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G144" s="1" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="C145" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="D145" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F145" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D145" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="G145" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B146" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="D146" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E146" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D146" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E146" s="1" t="s">
+      <c r="F146" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F146" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="G146" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B147" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="D147" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G147" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="C148" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="D148" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="E148" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F148" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E148" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="G148" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B149" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="D149" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E149" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D149" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="F149" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B150" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C150" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="D150" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B151" t="s">
+        <v>256</v>
+      </c>
+      <c r="C151" t="s">
         <v>257</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D151" t="s">
         <v>258</v>
       </c>
-      <c r="D151" t="s">
+      <c r="E151" t="s">
         <v>259</v>
       </c>
-      <c r="E151" t="s">
-        <v>260</v>
-      </c>
       <c r="F151" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G151" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>260</v>
+      </c>
+      <c r="B152" t="s">
         <v>261</v>
       </c>
-      <c r="B152" t="s">
+      <c r="C152" t="s">
         <v>262</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D152" t="s">
         <v>263</v>
       </c>
-      <c r="D152" t="s">
-        <v>264</v>
-      </c>
       <c r="E152" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F152" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G152" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B153" t="s">
+        <v>264</v>
+      </c>
+      <c r="C153" t="s">
         <v>265</v>
       </c>
-      <c r="C153" t="s">
-        <v>266</v>
-      </c>
       <c r="D153" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E153" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F153" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G153" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>205</v>
+      </c>
+      <c r="B154" t="s">
+        <v>266</v>
+      </c>
+      <c r="C154" t="s">
+        <v>267</v>
+      </c>
+      <c r="D154" t="s">
+        <v>221</v>
+      </c>
+      <c r="E154" t="s">
         <v>206</v>
       </c>
-      <c r="B154" t="s">
-        <v>267</v>
-      </c>
-      <c r="C154" t="s">
-        <v>268</v>
-      </c>
-      <c r="D154" t="s">
-        <v>222</v>
-      </c>
-      <c r="E154" t="s">
-        <v>207</v>
-      </c>
       <c r="F154" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G154" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>268</v>
+      </c>
+      <c r="B155" t="s">
         <v>269</v>
       </c>
-      <c r="B155" t="s">
+      <c r="C155" t="s">
         <v>270</v>
       </c>
-      <c r="C155" t="s">
+      <c r="D155" t="s">
         <v>271</v>
       </c>
-      <c r="D155" t="s">
+      <c r="E155" t="s">
         <v>272</v>
       </c>
-      <c r="E155" t="s">
-        <v>273</v>
-      </c>
       <c r="F155" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G155" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B156" t="s">
+        <v>273</v>
+      </c>
+      <c r="C156" t="s">
         <v>274</v>
       </c>
-      <c r="C156" t="s">
-        <v>275</v>
-      </c>
       <c r="D156" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E156" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F156" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G156" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>275</v>
+      </c>
+      <c r="B157" t="s">
         <v>276</v>
       </c>
-      <c r="B157" t="s">
+      <c r="C157" t="s">
         <v>277</v>
       </c>
-      <c r="C157" t="s">
+      <c r="D157" t="s">
         <v>278</v>
       </c>
-      <c r="D157" t="s">
-        <v>279</v>
-      </c>
       <c r="E157" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F157" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G157" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B158" t="s">
+        <v>279</v>
+      </c>
+      <c r="C158" t="s">
+        <v>223</v>
+      </c>
+      <c r="D158" t="s">
         <v>280</v>
       </c>
-      <c r="C158" t="s">
-        <v>224</v>
-      </c>
-      <c r="D158" t="s">
-        <v>281</v>
-      </c>
       <c r="E158" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F158" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G158" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
+        <v>281</v>
+      </c>
+      <c r="B159" t="s">
+        <v>3</v>
+      </c>
+      <c r="C159" t="s">
         <v>282</v>
       </c>
-      <c r="B159" t="s">
-        <v>4</v>
-      </c>
-      <c r="C159" t="s">
-        <v>283</v>
-      </c>
       <c r="D159" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E159" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F159" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G159" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B160" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C160" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D160" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E160" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F160" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G160" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B161" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C161" t="s">
+        <v>284</v>
+      </c>
+      <c r="D161" t="s">
         <v>285</v>
       </c>
-      <c r="D161" t="s">
-        <v>286</v>
-      </c>
       <c r="E161" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F161" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G161" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B162" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C162" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D162" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E162" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F162" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G162" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B163" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C163" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D163" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E163" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F163" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G163" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>288</v>
+      </c>
+      <c r="B164" t="s">
+        <v>27</v>
+      </c>
+      <c r="C164" t="s">
         <v>289</v>
       </c>
-      <c r="B164" t="s">
-        <v>28</v>
-      </c>
-      <c r="C164" t="s">
+      <c r="D164" t="s">
+        <v>102</v>
+      </c>
+      <c r="E164" t="s">
+        <v>67</v>
+      </c>
+      <c r="F164" t="s">
         <v>290</v>
       </c>
-      <c r="D164" t="s">
-        <v>103</v>
-      </c>
-      <c r="E164" t="s">
-        <v>68</v>
-      </c>
-      <c r="F164" t="s">
-        <v>291</v>
-      </c>
       <c r="G164" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B165" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C165" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D165" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E165" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F165" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G165" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B166" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C166" t="s">
+        <v>292</v>
+      </c>
+      <c r="D166" t="s">
+        <v>278</v>
+      </c>
+      <c r="E166" t="s">
         <v>293</v>
       </c>
-      <c r="D166" t="s">
-        <v>279</v>
-      </c>
-      <c r="E166" t="s">
-        <v>294</v>
-      </c>
       <c r="F166" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G166" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>294</v>
+      </c>
+      <c r="B167" t="s">
+        <v>35</v>
+      </c>
+      <c r="C167" t="s">
         <v>295</v>
       </c>
-      <c r="B167" t="s">
-        <v>36</v>
-      </c>
-      <c r="C167" t="s">
-        <v>296</v>
-      </c>
       <c r="D167" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E167" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F167" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G167" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B168" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C168" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D168" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E168" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F168" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G168" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B169" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C169" t="s">
+        <v>296</v>
+      </c>
+      <c r="D169" t="s">
+        <v>245</v>
+      </c>
+      <c r="E169" t="s">
         <v>297</v>
       </c>
-      <c r="D169" t="s">
-        <v>246</v>
-      </c>
-      <c r="E169" t="s">
-        <v>298</v>
-      </c>
       <c r="F169" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G169" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B170" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C170" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D170" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E170" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F170" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G170" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B171" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C171" t="s">
+        <v>299</v>
+      </c>
+      <c r="D171" t="s">
         <v>300</v>
       </c>
-      <c r="D171" t="s">
+      <c r="E171" t="s">
         <v>301</v>
       </c>
-      <c r="E171" t="s">
-        <v>302</v>
-      </c>
       <c r="F171" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G171" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B172" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C172" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D172" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E172" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F172" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G172" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>303</v>
+      </c>
+      <c r="B173" t="s">
+        <v>59</v>
+      </c>
+      <c r="C173" t="s">
         <v>304</v>
       </c>
-      <c r="B173" t="s">
-        <v>60</v>
-      </c>
-      <c r="C173" t="s">
-        <v>305</v>
-      </c>
       <c r="D173" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E173" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F173" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G173" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C174" t="s">
+        <v>305</v>
+      </c>
+      <c r="D174" t="s">
+        <v>68</v>
+      </c>
+      <c r="E174" t="s">
+        <v>174</v>
+      </c>
+      <c r="F174" t="s">
+        <v>185</v>
+      </c>
+      <c r="G174" t="s">
         <v>306</v>
-      </c>
-      <c r="D174" t="s">
-        <v>69</v>
-      </c>
-      <c r="E174" t="s">
-        <v>175</v>
-      </c>
-      <c r="F174" t="s">
-        <v>186</v>
-      </c>
-      <c r="G174" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B175" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C175" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D175" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E175" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F175" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G175" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B176" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C176" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D176" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E176" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F176" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G176" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B177" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C177" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D177" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E177" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F177" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G177" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B178" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C178" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D178" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E178" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F178" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G178" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B179" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C179" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D179" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E179" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F179" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G179" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B180" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C180" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D180" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E180" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F180" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G180" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B181" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C181" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D181" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E181" t="s">
+        <v>216</v>
+      </c>
+      <c r="F181" t="s">
         <v>217</v>
       </c>
-      <c r="F181" t="s">
-        <v>218</v>
-      </c>
       <c r="G181" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B182" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C182" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D182" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E182" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F182" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G182" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/data/Economic_Impact/GDP/Climate Risk Assesment/GLOBALCLIMATE RISKINDEX 2020_data concerning 1999-2018.xlsx
+++ b/data/Economic_Impact/GDP/Climate Risk Assesment/GLOBALCLIMATE RISKINDEX 2020_data concerning 1999-2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Konstantin\Desktop\Dashboard_Vers1\data\Economic_Impact\GDP\Climate Risk Assesment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AA8BF2-AAEE-4F63-BCEF-DA3FDF22AE76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D665AFE-BBAC-4CAC-9D71-EC9005CD043A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{4681FB31-FB2A-47F7-824A-C88F762BF8AD}"/>
+    <workbookView xWindow="7275" yWindow="1200" windowWidth="29985" windowHeight="13665" xr2:uid="{4681FB31-FB2A-47F7-824A-C88F762BF8AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1152,9 +1152,6 @@
     <t>79.67</t>
   </si>
   <si>
-    <t>Democratic Republic of Congo</t>
-  </si>
-  <si>
     <t>125.83</t>
   </si>
   <si>
@@ -1359,15 +1356,9 @@
     <t>119.17</t>
   </si>
   <si>
-    <t>Islamic Republic of Afghanistan</t>
-  </si>
-  <si>
     <t>41.83</t>
   </si>
   <si>
-    <t>Islamic Republic of Iran</t>
-  </si>
-  <si>
     <t>79.00</t>
   </si>
   <si>
@@ -1666,6 +1657,15 @@
   </si>
   <si>
     <t>CRI score</t>
+  </si>
+  <si>
+    <t>Demokratische Republik Kongo</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
   </si>
 </sst>
 </file>
@@ -2231,8 +2231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBADF30-339C-4196-8BF6-325DDC311AC3}">
   <dimension ref="A1:I182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2255,19 +2255,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="I1" s="1"/>
     </row>
@@ -3237,10 +3237,10 @@
         <v>216</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>70</v>
@@ -3260,10 +3260,10 @@
         <v>196</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>367</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>138</v>
@@ -3283,10 +3283,10 @@
         <v>88</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>369</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>290</v>
@@ -3306,10 +3306,10 @@
         <v>12</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>165</v>
@@ -3329,10 +3329,10 @@
         <v>259</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>115</v>
@@ -3352,10 +3352,10 @@
         <v>67</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>375</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>268</v>
@@ -3375,10 +3375,10 @@
         <v>253</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>377</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>105</v>
@@ -3398,16 +3398,16 @@
         <v>250</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>54</v>
@@ -3421,10 +3421,10 @@
         <v>21</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>246</v>
@@ -3444,16 +3444,16 @@
         <v>234</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>384</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>278</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>181</v>
@@ -3464,13 +3464,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>134</v>
@@ -3490,10 +3490,10 @@
         <v>26</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>144</v>
@@ -3513,10 +3513,10 @@
         <v>38</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>391</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>52</v>
@@ -3536,10 +3536,10 @@
         <v>53</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>393</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>57</v>
@@ -3559,10 +3559,10 @@
         <v>153</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>395</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>238</v>
@@ -3582,10 +3582,10 @@
         <v>29</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>175</v>
@@ -3605,10 +3605,10 @@
         <v>354</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>134</v>
@@ -3628,10 +3628,10 @@
         <v>31</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>401</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>26</v>
@@ -3651,10 +3651,10 @@
         <v>63</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>403</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>259</v>
@@ -3674,10 +3674,10 @@
         <v>165</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>405</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>38</v>
@@ -3697,10 +3697,10 @@
         <v>329</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>406</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>407</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>17</v>
@@ -3720,10 +3720,10 @@
         <v>272</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>409</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>249</v>
@@ -3743,10 +3743,10 @@
         <v>79</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>411</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>74</v>
@@ -3763,13 +3763,13 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>413</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>85</v>
@@ -3789,10 +3789,10 @@
         <v>213</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>414</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>415</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>166</v>
@@ -3801,7 +3801,7 @@
         <v>102</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>329</v>
@@ -3812,10 +3812,10 @@
         <v>241</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>417</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>110</v>
@@ -3835,10 +3835,10 @@
         <v>32</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>419</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>29</v>
@@ -3858,10 +3858,10 @@
         <v>16</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>420</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>421</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>99</v>
@@ -3881,10 +3881,10 @@
         <v>245</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>422</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>423</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>8</v>
@@ -3904,10 +3904,10 @@
         <v>196</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>120</v>
@@ -3916,7 +3916,7 @@
         <v>120</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>138</v>
@@ -3927,10 +3927,10 @@
         <v>63</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>32</v>
@@ -3950,10 +3950,10 @@
         <v>2</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>426</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>427</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>79</v>
@@ -3973,10 +3973,10 @@
         <v>168</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>429</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>161</v>
@@ -3988,7 +3988,7 @@
         <v>47</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -3996,10 +3996,10 @@
         <v>280</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>432</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>93</v>
@@ -4019,10 +4019,10 @@
         <v>206</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>433</v>
+        <v>535</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>53</v>
@@ -4042,10 +4042,10 @@
         <v>45</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>435</v>
+        <v>534</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>16</v>
@@ -4065,10 +4065,10 @@
         <v>224</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>58</v>
@@ -4088,10 +4088,10 @@
         <v>157</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>66</v>
@@ -4111,10 +4111,10 @@
         <v>215</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>217</v>
@@ -4134,7 +4134,7 @@
         <v>114</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>299</v>
@@ -4157,10 +4157,10 @@
         <v>121</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>62</v>
@@ -4180,10 +4180,10 @@
         <v>170</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>96</v>
@@ -4203,10 +4203,10 @@
         <v>143</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>111</v>
@@ -4226,10 +4226,10 @@
         <v>151</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>120</v>
@@ -4249,10 +4249,10 @@
         <v>95</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>129</v>
@@ -4272,16 +4272,16 @@
         <v>238</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>134</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>87</v>
@@ -4295,10 +4295,10 @@
         <v>195</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>60</v>
@@ -4318,10 +4318,10 @@
         <v>293</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>288</v>
@@ -4341,10 +4341,10 @@
         <v>57</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>181</v>
@@ -4364,10 +4364,10 @@
         <v>334</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>306</v>
@@ -4387,10 +4387,10 @@
         <v>306</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>271</v>
@@ -4407,13 +4407,13 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>148</v>
@@ -4422,7 +4422,7 @@
         <v>153</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>334</v>
@@ -4433,10 +4433,10 @@
         <v>138</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>152</v>
@@ -4448,7 +4448,7 @@
         <v>168</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -4456,10 +4456,10 @@
         <v>87</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>54</v>
@@ -4479,10 +4479,10 @@
         <v>23</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>335</v>
@@ -4494,7 +4494,7 @@
         <v>271</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -4502,10 +4502,10 @@
         <v>126</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>83</v>
@@ -4525,10 +4525,10 @@
         <v>116</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>329</v>
@@ -4548,10 +4548,10 @@
         <v>56</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>12</v>
@@ -4571,7 +4571,7 @@
         <v>139</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>322</v>
@@ -4594,10 +4594,10 @@
         <v>24</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>6</v>
@@ -4617,10 +4617,10 @@
         <v>278</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>278</v>
@@ -4640,10 +4640,10 @@
         <v>120</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>120</v>
@@ -4663,10 +4663,10 @@
         <v>18</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>348</v>
@@ -4686,10 +4686,10 @@
         <v>115</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>107</v>
@@ -4709,10 +4709,10 @@
         <v>300</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>21</v>
@@ -4732,10 +4732,10 @@
         <v>70</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>213</v>
@@ -4755,10 +4755,10 @@
         <v>327</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>151</v>
@@ -4778,10 +4778,10 @@
         <v>46</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>5</v>
@@ -4801,10 +4801,10 @@
         <v>181</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>9</v>
@@ -4824,10 +4824,10 @@
         <v>49</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>171</v>
@@ -4847,10 +4847,10 @@
         <v>209</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>34</v>
@@ -4870,10 +4870,10 @@
         <v>22</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>116</v>
@@ -4893,10 +4893,10 @@
         <v>81</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>63</v>
@@ -4916,10 +4916,10 @@
         <v>14</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>180</v>
@@ -4939,10 +4939,10 @@
         <v>301</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>115</v>
@@ -4962,7 +4962,7 @@
         <v>36</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>310</v>
@@ -4985,10 +4985,10 @@
         <v>9</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>19</v>
@@ -5008,10 +5008,10 @@
         <v>228</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>71</v>
@@ -5031,10 +5031,10 @@
         <v>181</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>195</v>
@@ -5054,10 +5054,10 @@
         <v>271</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>166</v>
@@ -5077,10 +5077,10 @@
         <v>51</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>100</v>
@@ -5100,10 +5100,10 @@
         <v>188</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>126</v>
@@ -5123,10 +5123,10 @@
         <v>306</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>106</v>
@@ -5146,10 +5146,10 @@
         <v>6</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>212</v>
@@ -5169,10 +5169,10 @@
         <v>285</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>47</v>
@@ -5192,7 +5192,7 @@
         <v>39</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>109</v>

--- a/data/Economic_Impact/GDP/Climate Risk Assesment/GLOBALCLIMATE RISKINDEX 2020_data concerning 1999-2018.xlsx
+++ b/data/Economic_Impact/GDP/Climate Risk Assesment/GLOBALCLIMATE RISKINDEX 2020_data concerning 1999-2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Konstantin\Desktop\Dashboard_Vers1\data\Economic_Impact\GDP\Climate Risk Assesment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D665AFE-BBAC-4CAC-9D71-EC9005CD043A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6381452E-56BF-41F7-A1E2-015C0EBDD7DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7275" yWindow="1200" windowWidth="29985" windowHeight="13665" xr2:uid="{4681FB31-FB2A-47F7-824A-C88F762BF8AD}"/>
+    <workbookView xWindow="2655" yWindow="1800" windowWidth="29985" windowHeight="13665" xr2:uid="{4681FB31-FB2A-47F7-824A-C88F762BF8AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1659,13 +1659,13 @@
     <t>CRI score</t>
   </si>
   <si>
-    <t>Demokratische Republik Kongo</t>
-  </si>
-  <si>
     <t>Iran</t>
   </si>
   <si>
     <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Congo, Dem. Rep. Of</t>
   </si>
 </sst>
 </file>
@@ -2231,8 +2231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBADF30-339C-4196-8BF6-325DDC311AC3}">
   <dimension ref="A1:I182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3237,7 +3237,7 @@
         <v>216</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>364</v>
@@ -4019,7 +4019,7 @@
         <v>206</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>432</v>
@@ -4042,7 +4042,7 @@
         <v>45</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>433</v>
